--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.989047333333333</v>
+        <v>20.419994</v>
       </c>
       <c r="H2">
-        <v>17.967142</v>
+        <v>61.259982</v>
       </c>
       <c r="I2">
-        <v>0.8690824067612113</v>
+        <v>0.9499654772891737</v>
       </c>
       <c r="J2">
-        <v>0.8690824067612114</v>
+        <v>0.9499654772891736</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.275651</v>
+        <v>231.368169</v>
       </c>
       <c r="N2">
-        <v>261.826953</v>
+        <v>694.104507</v>
       </c>
       <c r="O2">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="P2">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="Q2">
-        <v>522.6980048864806</v>
+        <v>4724.536622770986</v>
       </c>
       <c r="R2">
-        <v>4704.282043978325</v>
+        <v>42520.82960493887</v>
       </c>
       <c r="S2">
-        <v>0.8423842236564258</v>
+        <v>0.9415208093879998</v>
       </c>
       <c r="T2">
-        <v>0.842384223656426</v>
+        <v>0.9415208093879996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.989047333333333</v>
+        <v>20.419994</v>
       </c>
       <c r="H3">
-        <v>17.967142</v>
+        <v>61.259982</v>
       </c>
       <c r="I3">
-        <v>0.8690824067612113</v>
+        <v>0.9499654772891737</v>
       </c>
       <c r="J3">
-        <v>0.8690824067612114</v>
+        <v>0.9499654772891736</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.263809</v>
       </c>
       <c r="O3">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="P3">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="Q3">
-        <v>4.519353084875333</v>
+        <v>15.408988732382</v>
       </c>
       <c r="R3">
-        <v>40.674177763878</v>
+        <v>138.680898591438</v>
       </c>
       <c r="S3">
-        <v>0.007283425045134409</v>
+        <v>0.003070752689954567</v>
       </c>
       <c r="T3">
-        <v>0.00728342504513441</v>
+        <v>0.003070752689954567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.989047333333333</v>
+        <v>20.419994</v>
       </c>
       <c r="H4">
-        <v>17.967142</v>
+        <v>61.259982</v>
       </c>
       <c r="I4">
-        <v>0.8690824067612113</v>
+        <v>0.9499654772891737</v>
       </c>
       <c r="J4">
-        <v>0.8690824067612114</v>
+        <v>0.9499654772891736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6749333333333333</v>
+        <v>1.150710666666667</v>
       </c>
       <c r="N4">
-        <v>2.0248</v>
+        <v>3.452132</v>
       </c>
       <c r="O4">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="P4">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="Q4">
-        <v>4.042207680177777</v>
+        <v>23.49750490906933</v>
       </c>
       <c r="R4">
-        <v>36.3798691216</v>
+        <v>211.477544181624</v>
       </c>
       <c r="S4">
-        <v>0.006514453750907498</v>
+        <v>0.004682658132854069</v>
       </c>
       <c r="T4">
-        <v>0.006514453750907498</v>
+        <v>0.004682658132854068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.989047333333333</v>
+        <v>20.419994</v>
       </c>
       <c r="H5">
-        <v>17.967142</v>
+        <v>61.259982</v>
       </c>
       <c r="I5">
-        <v>0.8690824067612113</v>
+        <v>0.9499654772891737</v>
       </c>
       <c r="J5">
-        <v>0.8690824067612114</v>
+        <v>0.9499654772891736</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.336542666666667</v>
+        <v>0.1698686666666667</v>
       </c>
       <c r="N5">
-        <v>4.009628</v>
+        <v>0.509606</v>
       </c>
       <c r="O5">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="P5">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="Q5">
-        <v>8.004617293686222</v>
+        <v>3.468717154121333</v>
       </c>
       <c r="R5">
-        <v>72.041555643176</v>
+        <v>31.218454387092</v>
       </c>
       <c r="S5">
-        <v>0.01290030430874345</v>
+        <v>0.0006912570783652627</v>
       </c>
       <c r="T5">
-        <v>0.01290030430874345</v>
+        <v>0.0006912570783652625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.233582</v>
       </c>
       <c r="I6">
-        <v>0.05966916794542552</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="J6">
-        <v>0.05966916794542553</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.275651</v>
+        <v>231.368169</v>
       </c>
       <c r="N6">
-        <v>261.826953</v>
+        <v>694.104507</v>
       </c>
       <c r="O6">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="P6">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="Q6">
-        <v>35.887224037294</v>
+        <v>95.137202883786</v>
       </c>
       <c r="R6">
-        <v>322.985016335646</v>
+        <v>856.234825954074</v>
       </c>
       <c r="S6">
-        <v>0.05783613305814254</v>
+        <v>0.01895924688790257</v>
       </c>
       <c r="T6">
-        <v>0.05783613305814254</v>
+        <v>0.01895924688790257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.233582</v>
       </c>
       <c r="I7">
-        <v>0.05966916794542552</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="J7">
-        <v>0.05966916794542553</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.263809</v>
       </c>
       <c r="O7">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="P7">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="Q7">
         <v>0.310288225982</v>
@@ -883,10 +883,10 @@
         <v>2.792594033838</v>
       </c>
       <c r="S7">
-        <v>0.0005000629501356975</v>
+        <v>6.183523274263343E-05</v>
       </c>
       <c r="T7">
-        <v>0.0005000629501356976</v>
+        <v>6.183523274263343E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.233582</v>
       </c>
       <c r="I8">
-        <v>0.05966916794542552</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="J8">
-        <v>0.05966916794542553</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6749333333333333</v>
+        <v>1.150710666666667</v>
       </c>
       <c r="N8">
-        <v>2.0248</v>
+        <v>3.452132</v>
       </c>
       <c r="O8">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="P8">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="Q8">
-        <v>0.2775285370666666</v>
+        <v>0.4731653218693334</v>
       </c>
       <c r="R8">
-        <v>2.4977568336</v>
+        <v>4.258487896824</v>
       </c>
       <c r="S8">
-        <v>0.0004472671773258081</v>
+        <v>9.429390274457457E-05</v>
       </c>
       <c r="T8">
-        <v>0.0004472671773258081</v>
+        <v>9.429390274457454E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.233582</v>
       </c>
       <c r="I9">
-        <v>0.05966916794542552</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="J9">
-        <v>0.05966916794542553</v>
+        <v>0.0191292957514309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.336542666666667</v>
+        <v>0.1698686666666667</v>
       </c>
       <c r="N9">
-        <v>4.009628</v>
+        <v>0.509606</v>
       </c>
       <c r="O9">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="P9">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="Q9">
-        <v>0.5495783252773333</v>
+        <v>0.06984897652133333</v>
       </c>
       <c r="R9">
-        <v>4.946204927496</v>
+        <v>0.628640788692</v>
       </c>
       <c r="S9">
-        <v>0.0008857047598214763</v>
+        <v>1.391972804112116E-05</v>
       </c>
       <c r="T9">
-        <v>0.0008857047598214764</v>
+        <v>1.391972804112116E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4909893333333333</v>
+        <v>0.6643236666666666</v>
       </c>
       <c r="H10">
-        <v>1.472968</v>
+        <v>1.992971</v>
       </c>
       <c r="I10">
-        <v>0.07124842529336317</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="J10">
-        <v>0.07124842529336319</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.275651</v>
+        <v>231.368169</v>
       </c>
       <c r="N10">
-        <v>261.826953</v>
+        <v>694.104507</v>
       </c>
       <c r="O10">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="P10">
-        <v>0.9692800327137205</v>
+        <v>0.9911105528536978</v>
       </c>
       <c r="Q10">
-        <v>42.85141370072266</v>
+        <v>153.703350380033</v>
       </c>
       <c r="R10">
-        <v>385.6627233065039</v>
+        <v>1383.330153420297</v>
       </c>
       <c r="S10">
-        <v>0.06905967599915212</v>
+        <v>0.03063049657779546</v>
       </c>
       <c r="T10">
-        <v>0.06905967599915214</v>
+        <v>0.03063049657779546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4909893333333333</v>
+        <v>0.6643236666666666</v>
       </c>
       <c r="H11">
-        <v>1.472968</v>
+        <v>1.992971</v>
       </c>
       <c r="I11">
-        <v>0.07124842529336317</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="J11">
-        <v>0.07124842529336319</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.263809</v>
       </c>
       <c r="O11">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="P11">
-        <v>0.008380591976631279</v>
+        <v>0.0032324887202399</v>
       </c>
       <c r="Q11">
-        <v>0.3705020239013333</v>
+        <v>0.5013006318376667</v>
       </c>
       <c r="R11">
-        <v>3.334518215112</v>
+        <v>4.511705686539001</v>
       </c>
       <c r="S11">
-        <v>0.0005971039813611724</v>
+        <v>9.990079754269993E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005971039813611726</v>
+        <v>9.990079754269995E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4909893333333333</v>
+        <v>0.6643236666666666</v>
       </c>
       <c r="H12">
-        <v>1.472968</v>
+        <v>1.992971</v>
       </c>
       <c r="I12">
-        <v>0.07124842529336317</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="J12">
-        <v>0.07124842529336319</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6749333333333333</v>
+        <v>1.150710666666667</v>
       </c>
       <c r="N12">
-        <v>2.0248</v>
+        <v>3.452132</v>
       </c>
       <c r="O12">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="P12">
-        <v>0.007495783714210436</v>
+        <v>0.004929292953062385</v>
       </c>
       <c r="Q12">
-        <v>0.3313850673777777</v>
+        <v>0.7644443293524444</v>
       </c>
       <c r="R12">
-        <v>2.982465606399999</v>
+        <v>6.879998964172</v>
       </c>
       <c r="S12">
-        <v>0.0005340627859771306</v>
+        <v>0.0001523409174637418</v>
       </c>
       <c r="T12">
-        <v>0.0005340627859771307</v>
+        <v>0.0001523409174637418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4909893333333333</v>
+        <v>0.6643236666666666</v>
       </c>
       <c r="H13">
-        <v>1.472968</v>
+        <v>1.992971</v>
       </c>
       <c r="I13">
-        <v>0.07124842529336317</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="J13">
-        <v>0.07124842529336319</v>
+        <v>0.03090522695939548</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.336542666666667</v>
+        <v>0.1698686666666667</v>
       </c>
       <c r="N13">
-        <v>4.009628</v>
+        <v>0.509606</v>
       </c>
       <c r="O13">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="P13">
-        <v>0.01484359159543766</v>
+        <v>0.0007276654729999635</v>
       </c>
       <c r="Q13">
-        <v>0.6562281928782221</v>
+        <v>0.1128477754917778</v>
       </c>
       <c r="R13">
-        <v>5.906053735904</v>
+        <v>1.015629979426</v>
       </c>
       <c r="S13">
-        <v>0.001057582526872733</v>
+        <v>2.248866659357973E-05</v>
       </c>
       <c r="T13">
-        <v>0.001057582526872733</v>
+        <v>2.248866659357973E-05</v>
       </c>
     </row>
   </sheetData>
